--- a/paper/raw_data/revised/old_results/exp18_NUM_MEA.xlsx
+++ b/paper/raw_data/revised/old_results/exp18_NUM_MEA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aprodrom\Desktop\MemPod\paper\raw_data\revised\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodr\Desktop\MemPod\paper\raw_data\revised\old_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,10 +14,7 @@
   <sheets>
     <sheet name="NUM_MEA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,9 +174,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -187,6 +181,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,7 +202,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -280,6 +277,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1142-419F-B34F-456CEE623FD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -323,6 +325,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1142-419F-B34F-456CEE623FD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -366,6 +373,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1142-419F-B34F-456CEE623FD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -480,6 +492,11 @@
             </c:numRef>
           </c:cat>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1142-419F-B34F-456CEE623FD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -572,6 +589,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1142-419F-B34F-456CEE623FD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -645,6 +667,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1142-419F-B34F-456CEE623FD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -718,6 +745,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1142-419F-B34F-456CEE623FD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -779,6 +811,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1142-419F-B34F-456CEE623FD4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -942,7 +979,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1849,309 +1885,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="exp17"/>
-      <sheetName val="exp_17_MP_optimal"/>
-      <sheetName val="exp18"/>
-      <sheetName val="exp18_graph_raw"/>
-      <sheetName val="exp18_graph_normalized"/>
-      <sheetName val="exp18_small"/>
-      <sheetName val="exp19"/>
-      <sheetName val="exp19_graph_raw"/>
-      <sheetName val="exp19_graph_normalized"/>
-      <sheetName val="exp19_small"/>
-      <sheetName val="exp27"/>
-      <sheetName val="exp27_graph_raw"/>
-      <sheetName val="exp27_graph_normalized"/>
-      <sheetName val="exp27_small"/>
-      <sheetName val="exp28"/>
-      <sheetName val="exp29_counting"/>
-      <sheetName val="exp29_future"/>
-      <sheetName val="exp26"/>
-      <sheetName val="HMA Cost analysis"/>
-      <sheetName val="exp26-4 bits"/>
-      <sheetName val="sat. counters"/>
-      <sheetName val="sat.counters-part 2"/>
-      <sheetName val="exp30"/>
-      <sheetName val="exp04"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1">
-            <v>16</v>
-          </cell>
-          <cell r="C1">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>32</v>
-          </cell>
-          <cell r="C2">
-            <v>0.96677179030120231</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>64</v>
-          </cell>
-          <cell r="C3">
-            <v>0.94341606106312015</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>AVG MIX</v>
-          </cell>
-          <cell r="B4">
-            <v>128</v>
-          </cell>
-          <cell r="C4">
-            <v>0.93841126194067381</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>256</v>
-          </cell>
-          <cell r="C5">
-            <v>0.94359888477535558</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>512</v>
-          </cell>
-          <cell r="C6">
-            <v>0.96476072946661207</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>16</v>
-          </cell>
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>32</v>
-          </cell>
-          <cell r="D9">
-            <v>0.97144259077526984</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>64</v>
-          </cell>
-          <cell r="D10">
-            <v>0.94584560026169473</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>AVG HG</v>
-          </cell>
-          <cell r="B11">
-            <v>128</v>
-          </cell>
-          <cell r="D11">
-            <v>0.93801112201504766</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>256</v>
-          </cell>
-          <cell r="D12">
-            <v>0.93580307491004266</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>512</v>
-          </cell>
-          <cell r="D13">
-            <v>0.93807439086311373</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>16</v>
-          </cell>
-          <cell r="E15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>32</v>
-          </cell>
-          <cell r="E16">
-            <v>0.96949417529409532</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>64</v>
-          </cell>
-          <cell r="E17">
-            <v>0.94483212263341554</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>AVG ALL</v>
-          </cell>
-          <cell r="B18">
-            <v>128</v>
-          </cell>
-          <cell r="E18">
-            <v>0.93817803961944002</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>256</v>
-          </cell>
-          <cell r="E19">
-            <v>0.93905508207973487</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>512</v>
-          </cell>
-          <cell r="E20">
-            <v>0.94920654595293308</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>3.6649999999999996</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>6.5508333333333333</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>11.228333333333333</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>18.329999999999998</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>26.10083333333333</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>36.008333333333333</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>2.8960000000000004</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>5.1433333333333335</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>8.543333333333333</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>12.896000000000004</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>16.787333333333336</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>20.068929391199223</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>3.2377777777777772</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>5.7688888888888892</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38">
-            <v>9.7366666666666646</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>15.311111111111112</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40">
-            <v>20.926666666666666</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>27.153108921036612</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2228,6 +1961,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2263,6 +2013,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2428,97 +2195,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="1" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>32</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>64</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>128</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>256</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>512</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="2">
+      <c r="H2" s="1"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1">
         <v>16</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>32</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>64</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>128</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>256</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>512</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="R2" s="2">
+      <c r="P2" s="1"/>
+      <c r="R2" s="1">
         <v>16</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>32</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>64</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>128</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>256</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -2539,7 +2306,7 @@
       <c r="G3">
         <v>27.97</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J3">
@@ -2566,7 +2333,7 @@
         <f t="shared" si="0"/>
         <v>1.046389824167602</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="R3">
@@ -2589,7 +2356,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4">
@@ -2610,7 +2377,7 @@
       <c r="G4">
         <v>49.62</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J4">
@@ -2637,7 +2404,7 @@
         <f t="shared" si="0"/>
         <v>1.0912689685506927</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="R4">
@@ -2660,7 +2427,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -2681,7 +2448,7 @@
       <c r="G5">
         <v>63.83</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J5">
@@ -2708,7 +2475,7 @@
         <f t="shared" si="0"/>
         <v>0.95884031846176965</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="R5">
@@ -2731,7 +2498,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6">
@@ -2752,7 +2519,7 @@
       <c r="G6">
         <v>45.2</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J6">
@@ -2779,7 +2546,7 @@
         <f t="shared" si="0"/>
         <v>0.95904943772544027</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R6">
@@ -2802,7 +2569,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -2823,7 +2590,7 @@
       <c r="G7">
         <v>65.680000000000007</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="J7">
@@ -2850,7 +2617,7 @@
         <f t="shared" si="0"/>
         <v>0.88852813852813861</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R7">
@@ -2873,7 +2640,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8">
@@ -2894,7 +2661,7 @@
       <c r="G8">
         <v>15.4</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J8">
@@ -2921,7 +2688,7 @@
         <f t="shared" si="0"/>
         <v>0.86129753914988816</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R8">
@@ -2944,7 +2711,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9">
@@ -2965,7 +2732,7 @@
       <c r="G9">
         <v>58.1</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J9">
@@ -2992,7 +2759,7 @@
         <f t="shared" si="0"/>
         <v>1.2265146717331645</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="R9">
@@ -3015,7 +2782,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10">
@@ -3036,7 +2803,7 @@
       <c r="G10">
         <v>18.55</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J10">
@@ -3063,7 +2830,7 @@
         <f t="shared" si="0"/>
         <v>0.77420701168614359</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R10">
@@ -3086,7 +2853,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11">
@@ -3107,7 +2874,7 @@
       <c r="G11">
         <v>36.979999999999997</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J11">
@@ -3134,7 +2901,7 @@
         <f t="shared" si="0"/>
         <v>0.86868686868686862</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R11">
@@ -3157,7 +2924,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12">
@@ -3178,7 +2945,7 @@
       <c r="G12">
         <v>14.15</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J12">
@@ -3205,7 +2972,7 @@
         <f t="shared" si="0"/>
         <v>0.8860363180964308</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R12">
@@ -3228,7 +2995,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13">
@@ -3249,7 +3016,7 @@
       <c r="G13">
         <v>24.87</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J13">
@@ -3276,7 +3043,7 @@
         <f t="shared" si="0"/>
         <v>0.8816022686990429</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="R13">
@@ -3299,7 +3066,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -3320,7 +3087,7 @@
       <c r="G14">
         <v>14.16</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J14">
@@ -3347,7 +3114,7 @@
         <f t="shared" si="0"/>
         <v>0.89677010766307796</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R14">
@@ -3370,7 +3137,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -3391,7 +3158,7 @@
       <c r="G15">
         <v>30.3</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J15">
@@ -3418,7 +3185,7 @@
         <f t="shared" si="0"/>
         <v>0.95193213949104627</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R15">
@@ -3441,7 +3208,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -3462,7 +3229,7 @@
       <c r="G16">
         <v>66.489999999999995</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J16">
@@ -3489,7 +3256,7 @@
         <f t="shared" si="0"/>
         <v>0.92928022361984619</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R16">
@@ -3512,7 +3279,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17">
@@ -3533,7 +3300,7 @@
       <c r="G17">
         <v>49.97</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J17">
@@ -3560,7 +3327,7 @@
         <f t="shared" si="0"/>
         <v>0.88505136379737859</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="R17">
@@ -3583,7 +3350,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -3604,7 +3371,7 @@
       <c r="G18">
         <v>32.869999999999997</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J18">
@@ -3631,7 +3398,7 @@
         <f t="shared" si="0"/>
         <v>1.0182775712515488</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R18">
@@ -3654,7 +3421,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -3675,7 +3442,7 @@
       <c r="G19">
         <v>20.11</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J19">
@@ -3702,7 +3469,7 @@
         <f t="shared" ref="O19:O32" si="6">G19/$B19</f>
         <v>0.93928070994862212</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="R19">
@@ -3725,7 +3492,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B20">
@@ -3746,7 +3513,7 @@
       <c r="G20">
         <v>37.82</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J20">
@@ -3773,7 +3540,7 @@
         <f t="shared" si="6"/>
         <v>0.97953897953897962</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R20">
@@ -3796,7 +3563,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B21">
@@ -3817,7 +3584,7 @@
       <c r="G21">
         <v>49.72</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J21">
@@ -3844,7 +3611,7 @@
         <f t="shared" si="6"/>
         <v>0.94704761904761903</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R21">
@@ -3867,7 +3634,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22">
@@ -3888,7 +3655,7 @@
       <c r="G22">
         <v>35.61</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J22">
@@ -3915,7 +3682,7 @@
         <f t="shared" si="6"/>
         <v>0.95751546114546926</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R22">
@@ -3938,7 +3705,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -3959,7 +3726,7 @@
       <c r="G23">
         <v>23.35</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J23">
@@ -3986,7 +3753,7 @@
         <f t="shared" si="6"/>
         <v>0.93176376695929775</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="R23">
@@ -4009,7 +3776,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24">
@@ -4030,7 +3797,7 @@
       <c r="G24">
         <v>32.270000000000003</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J24">
@@ -4057,7 +3824,7 @@
         <f t="shared" si="6"/>
         <v>0.96013091341862555</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R24">
@@ -4080,7 +3847,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25">
@@ -4101,7 +3868,7 @@
       <c r="G25">
         <v>35.24</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="J25">
@@ -4128,7 +3895,7 @@
         <f t="shared" si="6"/>
         <v>0.94426580921757775</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="R25">
@@ -4151,7 +3918,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26">
@@ -4172,7 +3939,7 @@
       <c r="G26">
         <v>27.01</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J26">
@@ -4199,7 +3966,7 @@
         <f t="shared" si="6"/>
         <v>0.88296829029094481</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="R26">
@@ -4222,7 +3989,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B27">
@@ -4243,7 +4010,7 @@
       <c r="G27">
         <v>47.18</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J27">
@@ -4270,7 +4037,7 @@
         <f t="shared" si="6"/>
         <v>1.0104947526236883</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R27">
@@ -4293,7 +4060,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B28">
@@ -4314,7 +4081,7 @@
       <c r="G28">
         <v>40.65</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J28">
@@ -4341,7 +4108,7 @@
         <f t="shared" si="6"/>
         <v>0.95557122708039488</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R28">
@@ -4364,7 +4131,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B29">
@@ -4385,7 +4152,7 @@
       <c r="G29">
         <v>40.299999999999997</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J29">
@@ -4412,7 +4179,7 @@
         <f t="shared" si="6"/>
         <v>1.0130718954248366</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="1" t="s">
         <v>25</v>
       </c>
       <c r="R29">
@@ -4435,7 +4202,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B30">
@@ -4462,7 +4229,7 @@
         <f t="shared" si="7"/>
         <v>38.751333333333342</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J30">
@@ -4489,7 +4256,7 @@
         <f t="shared" si="6"/>
         <v>0.95070411017157086</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R30">
@@ -4518,7 +4285,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B31">
@@ -4545,7 +4312,7 @@
         <f t="shared" si="8"/>
         <v>35.177500000000002</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J31">
@@ -4572,7 +4339,7 @@
         <f t="shared" si="6"/>
         <v>0.9646921705745235</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R31">
@@ -4601,7 +4368,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B32">
@@ -4628,7 +4395,7 @@
         <f t="shared" si="9"/>
         <v>37.162962962962965</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J32">
@@ -4655,7 +4422,7 @@
         <f t="shared" si="6"/>
         <v>0.95653914717966837</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="R32">
@@ -4684,50 +4451,50 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="Q33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="Q34" s="2"/>
+      <c r="A34" s="1"/>
+      <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="1" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="1" t="s">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B37">
@@ -4748,7 +4515,7 @@
       <c r="G37">
         <v>38.751333333333342</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J37">
@@ -4769,7 +4536,7 @@
       <c r="O37">
         <v>0.95070411017157086</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q37" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R37">
@@ -4792,7 +4559,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B38">
@@ -4813,7 +4580,7 @@
       <c r="G38">
         <v>35.177500000000002</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J38">
@@ -4834,7 +4601,7 @@
       <c r="O38">
         <v>0.9646921705745235</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R38">
@@ -4857,7 +4624,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B39">
@@ -4878,7 +4645,7 @@
       <c r="G39">
         <v>37.162962962962965</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J39">
@@ -4899,7 +4666,7 @@
       <c r="O39">
         <v>0.95653914717966837</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="R39">
@@ -4922,22 +4689,22 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2">
         <v>16</v>
       </c>
       <c r="C42">
         <v>40.760666666666665</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="3">
+      <c r="I42" s="1"/>
+      <c r="J42" s="2">
         <v>16</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="3">
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2">
         <v>16</v>
       </c>
       <c r="S42">
@@ -4945,22 +4712,22 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2">
         <v>32</v>
       </c>
       <c r="C43">
         <v>39.596666666666671</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="3">
+      <c r="I43" s="1"/>
+      <c r="J43" s="2">
         <v>32</v>
       </c>
       <c r="K43">
         <v>0.97144305784988805</v>
       </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="3">
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2">
         <v>32</v>
       </c>
       <c r="S43">
@@ -4968,22 +4735,22 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2">
         <v>64</v>
       </c>
       <c r="C44">
         <v>38.561999999999998</v>
       </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3">
+      <c r="I44" s="1"/>
+      <c r="J44" s="2">
         <v>64</v>
       </c>
       <c r="K44">
         <v>0.94605910927201053</v>
       </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="3">
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2">
         <v>64</v>
       </c>
       <c r="S44">
@@ -4991,28 +4758,28 @@
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>128</v>
       </c>
       <c r="C45">
         <v>38.229333333333344</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>128</v>
       </c>
       <c r="K45">
         <v>0.93789764642384021</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="Q45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="2">
         <v>128</v>
       </c>
       <c r="S45">
@@ -5020,22 +4787,22 @@
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2">
         <v>256</v>
       </c>
       <c r="C46">
         <v>38.144666666666673</v>
       </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="3">
+      <c r="I46" s="1"/>
+      <c r="J46" s="2">
         <v>256</v>
       </c>
       <c r="K46">
         <v>0.93582048052861433</v>
       </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="3">
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2">
         <v>256</v>
       </c>
       <c r="S46">
@@ -5043,22 +4810,22 @@
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2">
         <v>512</v>
       </c>
       <c r="C47">
         <v>38.751333333333342</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="3">
+      <c r="I47" s="1"/>
+      <c r="J47" s="2">
         <v>512</v>
       </c>
       <c r="K47">
         <v>0.95070411017157086</v>
       </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="3">
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2">
         <v>512</v>
       </c>
       <c r="S47">
@@ -5066,30 +4833,30 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="3"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="3"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="2"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2">
         <v>16</v>
       </c>
       <c r="D49">
         <v>36.465000000000003</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="3">
+      <c r="I49" s="1"/>
+      <c r="J49" s="2">
         <v>16</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="3">
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2">
         <v>16</v>
       </c>
       <c r="T49">
@@ -5097,22 +4864,22 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2">
         <v>32</v>
       </c>
       <c r="D50">
         <v>35.254166666666656</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="3">
+      <c r="I50" s="1"/>
+      <c r="J50" s="2">
         <v>32</v>
       </c>
       <c r="L50">
         <v>0.96679464326523112</v>
       </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="3">
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2">
         <v>32</v>
       </c>
       <c r="T50">
@@ -5120,22 +4887,22 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="2">
         <v>64</v>
       </c>
       <c r="D51">
         <v>34.399166666666666</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="3">
+      <c r="I51" s="3"/>
+      <c r="J51" s="2">
         <v>64</v>
       </c>
       <c r="L51">
         <v>0.94334750217103147</v>
       </c>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="3">
+      <c r="Q51" s="3"/>
+      <c r="R51" s="2">
         <v>64</v>
       </c>
       <c r="T51">
@@ -5143,28 +4910,28 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>128</v>
       </c>
       <c r="D52">
         <v>34.219166666666666</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>128</v>
       </c>
       <c r="L52">
         <v>0.93841126194067359</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="2">
         <v>128</v>
       </c>
       <c r="T52">
@@ -5172,22 +4939,22 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2">
         <v>256</v>
       </c>
       <c r="D53">
         <v>34.407500000000006</v>
       </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="3">
+      <c r="I53" s="1"/>
+      <c r="J53" s="2">
         <v>256</v>
       </c>
       <c r="L53">
         <v>0.94357603181132599</v>
       </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="3">
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2">
         <v>256</v>
       </c>
       <c r="T53">
@@ -5195,22 +4962,22 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2">
         <v>512</v>
       </c>
       <c r="D54">
         <v>35.177500000000002</v>
       </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="3">
+      <c r="I54" s="1"/>
+      <c r="J54" s="2">
         <v>512</v>
       </c>
       <c r="L54">
         <v>0.9646921705745235</v>
       </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="3">
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2">
         <v>512</v>
       </c>
       <c r="T54">
@@ -5218,30 +4985,30 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="3"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="3"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="2"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2">
         <v>16</v>
       </c>
       <c r="E56">
         <v>38.851481481481471</v>
       </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="3">
+      <c r="I56" s="1"/>
+      <c r="J56" s="2">
         <v>16</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="3">
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2">
         <v>16</v>
       </c>
       <c r="U56">
@@ -5249,22 +5016,22 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="2">
         <v>32</v>
       </c>
       <c r="E57">
         <v>37.666666666666671</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="3">
+      <c r="I57" s="3"/>
+      <c r="J57" s="2">
         <v>32</v>
       </c>
       <c r="M57">
         <v>0.96950399908483431</v>
       </c>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="3">
+      <c r="Q57" s="3"/>
+      <c r="R57" s="2">
         <v>32</v>
       </c>
       <c r="U57">
@@ -5272,22 +5039,22 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="2">
         <v>64</v>
       </c>
       <c r="E58">
         <v>36.711851851851854</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="3">
+      <c r="I58" s="3"/>
+      <c r="J58" s="2">
         <v>64</v>
       </c>
       <c r="M58">
         <v>0.94492797834107123</v>
       </c>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="3">
+      <c r="Q58" s="3"/>
+      <c r="R58" s="2">
         <v>64</v>
       </c>
       <c r="U58">
@@ -5295,28 +5062,28 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>128</v>
       </c>
       <c r="E59">
         <v>36.447037037037042</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <v>128</v>
       </c>
       <c r="M59">
         <v>0.93811189811151718</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="Q59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="2">
         <v>128</v>
       </c>
       <c r="U59">
@@ -5324,22 +5091,22 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2">
         <v>256</v>
       </c>
       <c r="E60">
         <v>36.483703703703711</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="3">
+      <c r="I60" s="1"/>
+      <c r="J60" s="2">
         <v>256</v>
       </c>
       <c r="M60">
         <v>0.93905566306637855</v>
       </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="3">
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2">
         <v>256</v>
       </c>
       <c r="U60">
@@ -5347,22 +5114,22 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2">
         <v>512</v>
       </c>
       <c r="E61">
         <v>37.162962962962965</v>
       </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="3">
+      <c r="I61" s="1"/>
+      <c r="J61" s="2">
         <v>512</v>
       </c>
       <c r="M61">
         <v>0.95653914717966837</v>
       </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="3">
+      <c r="Q61" s="1"/>
+      <c r="R61" s="2">
         <v>512</v>
       </c>
       <c r="U61">
